--- a/docs/PlanilhaEstatística.xlsx
+++ b/docs/PlanilhaEstatística.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/406cdb4a37e65257/Área de Trabalho/Projetos de Programação/Snowman-ERP/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC1048C5095E7CC05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35034FC-901A-4380-8446-52B21A84D4B8}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="11_F25DC773A252ABDACC1048C5095E7CC05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8255E583-A3FA-43FD-9B9C-877998733A86}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="14325" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelas e Gráficos (5.1)" sheetId="1" r:id="rId1"/>
-    <sheet name="Distrib. (5.2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelas" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráficos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Tabelas e Gráficos (5.1)'!$B$9:$B$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Tabelas e Gráficos (5.1)'!$B$9:$B$20</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Tabelas!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Tabelas!$B$9:$B$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="153">
   <si>
     <t>Gerente</t>
   </si>
@@ -482,6 +504,24 @@
   </si>
   <si>
     <t>maio - 2025</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t>coeficiente</t>
+  </si>
+  <si>
+    <t>desvio padrão</t>
+  </si>
+  <si>
+    <t>variância</t>
   </si>
 </sst>
 </file>
@@ -491,7 +531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,16 +539,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -516,28 +575,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -608,7 +704,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$H$1</c:f>
+              <c:f>Tabelas!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -629,7 +725,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$G$2:$G$7</c:f>
+              <c:f>Tabelas!$G$2:$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -655,7 +751,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$H$2:$H$7</c:f>
+              <c:f>Tabelas!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -682,7 +778,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BAC-476C-96D7-83A69A0584E9}"/>
+              <c16:uniqueId val="{00000000-53FC-4332-BB78-B1F26B61C008}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -930,7 +1026,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$E$1</c:f>
+              <c:f>Tabelas!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -950,6 +1046,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E142-46CB-A052-635C0BC30AB6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -965,6 +1066,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E142-46CB-A052-635C0BC30AB6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1024,7 +1130,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$D$2:$D$3</c:f>
+              <c:f>Tabelas!$D$2:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1038,7 +1144,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$E$2:$E$3</c:f>
+              <c:f>Tabelas!$E$2:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1053,7 +1159,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B46B-4701-BC44-D6EA71E884E6}"/>
+              <c16:uniqueId val="{00000004-E142-46CB-A052-635C0BC30AB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1225,7 +1331,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$B$8</c:f>
+              <c:f>Tabelas!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1248,7 +1354,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$A$9:$A$20</c:f>
+              <c:f>Tabelas!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1292,7 +1398,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$B$9:$B$20</c:f>
+              <c:f>Tabelas!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1338,7 +1444,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9025-4FD9-8D90-BFA3D9D52AB5}"/>
+              <c16:uniqueId val="{00000000-5695-4907-908E-1DF473CC5C22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1521,6 +1627,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>quantidade de usuários criados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1572,7 +1703,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$B$8</c:f>
+              <c:f>Tabelas!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1593,7 +1724,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$A$9:$A$20</c:f>
+              <c:f>Tabelas!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1637,7 +1768,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas e Gráficos (5.1)'!$B$9:$B$20</c:f>
+              <c:f>Tabelas!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1682,7 +1813,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A00-4F8D-B126-E583D2F98A5E}"/>
+              <c16:uniqueId val="{00000000-342F-462C-8FCA-2E1CC06A53E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4063,27 +4194,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A952C33-EC2C-7ED0-1D81-288C1726375A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3F577B-A6ED-4099-9D92-AC403A81BDFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4099,27 +4232,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E3B2D4-5311-DF02-828C-DB7ABE294F9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A2596A-7661-490C-8A7C-EA695A22F444}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4135,27 +4270,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2D3211-1F58-C172-19AA-7E085703FD11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627FD595-D61E-4A76-823C-57AD46D6938E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4171,27 +4308,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB3611E-CDD9-1730-063E-F15D1F62EFBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6189F5D6-FAD5-4FEC-B24B-370E4DD4FB87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4474,1094 +4613,1104 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>80</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="J2" s="13">
+        <f>AVERAGE($B$2:$B$13)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="K2" s="14">
+        <f>_xlfn.MODE.SNGL(B2:B13)</f>
+        <v>6</v>
+      </c>
+      <c r="L2" s="7">
+        <f>MEDIAN(B2:B13)</f>
+        <v>6.5</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="3"/>
-      <c r="G4" s="4" t="s">
+      <c r="N3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="J4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="3"/>
-      <c r="G6" s="4" t="s">
+      <c r="J5" s="13">
+        <f>_xlfn.STDEV.P(B2:B13)</f>
+        <v>2.3921166824012206</v>
+      </c>
+      <c r="K5" s="13">
+        <f>_xlfn.VAR.P(B2:B13)</f>
+        <v>5.7222222222222223</v>
+      </c>
+      <c r="L5" s="15" cm="1">
+        <f t="array" ref="L5">_xlfn.STDEV.P(B2:B13/AVERAGE(B2:B13))</f>
+        <v>0.358817502360183</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-      <c r="G7" s="4" t="s">
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="6">
         <v>9</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="6">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="1">
+        <v>146</v>
+      </c>
+      <c r="B13" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="N13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R15" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="N22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="Q41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="Q42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="Q43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="Q44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="Q45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="Q46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="Q47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="Q48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q50" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="R56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q57" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q58" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q60" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q61" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q62" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q63" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q64" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="R64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q65" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q66" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q67" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q68" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q69" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q70" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q71" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q72" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q73" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q74" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q75" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q76" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="R76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q77" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q78" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q79" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q80" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D65" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D68" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D78" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D79" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D81" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E81" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D83" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E83" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D84" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D85" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D86" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D87" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D89" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D90" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D91" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D92" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E92" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D93" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E93" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D94" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E94" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D95" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D96" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D97" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D98" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D99" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E99" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D100" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D101" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E101" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D102" s="2" t="s">
+      <c r="R80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q81" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E102" s="2">
+      <c r="R81" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5572,10 +5721,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>